--- a/b_df.xlsx
+++ b/b_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,324 +434,389 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Entity</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>front</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>drill</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>robot</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>camera</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>back</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>press</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001852F3191D0&gt;</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000142BEC7F6D0&gt;</t>
+        </is>
       </c>
       <c r="D2" t="n">
-        <v>105</v>
+        <v>10.52</v>
       </c>
       <c r="E2" t="n">
-        <v>6.632302564306417</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.129950827677321</v>
+      </c>
+      <c r="H2" t="n">
         <v>10.57</v>
       </c>
-      <c r="G2" t="n">
-        <v>20.9963217231165</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>15.26949101749536</v>
+      </c>
+      <c r="J2" t="n">
         <v>10.96405234596766</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001852E8F04D0&gt;</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000142BF3326D0&gt;</t>
+        </is>
       </c>
       <c r="D3" t="n">
-        <v>120</v>
+        <v>10.52</v>
       </c>
       <c r="E3" t="n">
-        <v>14.9295887617199</v>
+        <v>40</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5.53239683325921</v>
+      </c>
+      <c r="H3" t="n">
         <v>10.57</v>
       </c>
-      <c r="G3" t="n">
-        <v>8.914007715282469</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
+        <v>22.82678399638046</v>
+      </c>
+      <c r="J3" t="n">
         <v>9.600157208367223</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001852F319190&gt;</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000142BEC7E2D0&gt;</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>10.52</v>
       </c>
       <c r="E4" t="n">
-        <v>17.90308085596094</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13.41397598594179</v>
+      </c>
+      <c r="H4" t="n">
         <v>10.57</v>
       </c>
-      <c r="G4" t="n">
-        <v>5.941339825724333</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>5.106377495571499</v>
+      </c>
+      <c r="J4" t="n">
         <v>10.17873798410574</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001852F226E90&gt;</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000142BEC7C850&gt;</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>10.52</v>
       </c>
       <c r="E5" t="n">
-        <v>5.832928309903565</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.026442042795892</v>
+      </c>
+      <c r="H5" t="n">
         <v>10.57</v>
       </c>
-      <c r="G5" t="n">
-        <v>7.171620261826632</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>12.52018328692865</v>
+      </c>
+      <c r="J5" t="n">
         <v>11.44089319920146</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001852F16EFD0&gt;</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000142BEC7F910&gt;</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>10.52</v>
       </c>
       <c r="E6" t="n">
-        <v>10.02486057942978</v>
+        <v>40</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>24.66718464732364</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.257822963554124</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.06755799014997</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000142BEC7CB10&gt;</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E7" t="n">
+        <v>40</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.112268068829744</v>
+      </c>
+      <c r="H7" t="n">
         <v>10.57</v>
       </c>
-      <c r="G6" t="n">
-        <v>8.373147989311008</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11.06755799014997</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001852F267F10&gt;</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="C7" t="n">
-        <v>40</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>15.65857425420155</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
+        <v>7.418465886990127</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8.222722120123588</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000142BEDAC950&gt;</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E8" t="n">
+        <v>40</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.04740753792663</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8.307143947226059</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10.15008841752559</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000142BEC7EB90&gt;</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E9" t="n">
+        <v>40</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6.896517556243074</v>
+      </c>
+      <c r="H9" t="n">
         <v>10.57</v>
       </c>
-      <c r="G7" t="n">
-        <v>16.78869623378911</v>
-      </c>
-      <c r="H7" t="n">
-        <v>8.222722120123588</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001852F2DC650&gt;</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="C8" t="n">
-        <v>40</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8.988630263298939</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="I9" t="n">
+        <v>20.124720887337</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9.048642791702301</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000142BEC7EC10&gt;</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E10" t="n">
+        <v>40</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.579932185526084</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16.30770528057893</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9.096781148206441</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000142BA5AABD0&gt;</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E11" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.042580918513275</v>
+      </c>
+      <c r="H11" t="n">
         <v>10.57</v>
       </c>
-      <c r="G8" t="n">
-        <v>8.824194699628451</v>
-      </c>
-      <c r="H8" t="n">
-        <v>10.15008841752559</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001852F2DC410&gt;</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="C9" t="n">
-        <v>40</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>18.60136409004808</v>
-      </c>
-      <c r="F9" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="G9" t="n">
-        <v>8.883582894854802</v>
-      </c>
-      <c r="H9" t="n">
-        <v>9.048642791702301</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001852E0C74D0&gt;</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.303363074806793</v>
-      </c>
-      <c r="F10" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="G10" t="n">
-        <v>19.72500809857479</v>
-      </c>
-      <c r="H10" t="n">
-        <v>9.096781148206441</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>&lt;__main__.Entity object at 0x000001852F2DF190&gt;</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10.52</v>
-      </c>
-      <c r="C11" t="n">
-        <v>40</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10.76398919572299</v>
-      </c>
-      <c r="F11" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="G11" t="n">
-        <v>11.2237349804802</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
+        <v>10.50747034865826</v>
+      </c>
+      <c r="J11" t="n">
         <v>9.610598501938371</v>
       </c>
     </row>

--- a/b_df.xlsx
+++ b/b_df.xlsx
@@ -485,11 +485,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1766</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000142BEC7F6D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000018F49E4FB50&gt;</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -502,13 +502,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.129950827677321</v>
+        <v>10.68973446651506</v>
       </c>
       <c r="H2" t="n">
         <v>10.57</v>
       </c>
       <c r="I2" t="n">
-        <v>15.26949101749536</v>
+        <v>4.088093406540123</v>
       </c>
       <c r="J2" t="n">
         <v>10.96405234596766</v>
@@ -519,11 +519,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>1767</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000142BF3326D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001902264FC90&gt;</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.53239683325921</v>
+        <v>5.583047324609923</v>
       </c>
       <c r="H3" t="n">
         <v>10.57</v>
       </c>
       <c r="I3" t="n">
-        <v>22.82678399638046</v>
+        <v>19.60607910029737</v>
       </c>
       <c r="J3" t="n">
         <v>9.600157208367223</v>
@@ -553,11 +553,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1768</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000142BEC7E2D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000018D85D8E790&gt;</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -567,16 +567,16 @@
         <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="G4" t="n">
-        <v>13.41397598594179</v>
+        <v>6.343654578630103</v>
       </c>
       <c r="H4" t="n">
         <v>10.57</v>
       </c>
       <c r="I4" t="n">
-        <v>5.106377495571499</v>
+        <v>6.613265249541211</v>
       </c>
       <c r="J4" t="n">
         <v>10.17873798410574</v>
@@ -587,11 +587,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1769</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000142BEC7C850&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000018F90432190&gt;</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -604,13 +604,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5.026442042795892</v>
+        <v>12.11500629710816</v>
       </c>
       <c r="H5" t="n">
         <v>10.57</v>
       </c>
       <c r="I5" t="n">
-        <v>12.52018328692865</v>
+        <v>7.328150334609621</v>
       </c>
       <c r="J5" t="n">
         <v>11.44089319920146</v>
@@ -621,11 +621,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1770</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000142BEC7F910&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000018C62016850&gt;</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -638,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>24.66718464732364</v>
+        <v>10.13015804349755</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>10.57</v>
       </c>
       <c r="I6" t="n">
-        <v>6.257822963554124</v>
+        <v>6.105288002578111</v>
       </c>
       <c r="J6" t="n">
         <v>11.06755799014997</v>
@@ -655,11 +655,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1771</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000142BEC7CB10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000018D57A151D0&gt;</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5.112268068829744</v>
+        <v>11.80400005930868</v>
       </c>
       <c r="H7" t="n">
         <v>10.57</v>
       </c>
       <c r="I7" t="n">
-        <v>7.418465886990127</v>
+        <v>31.1074226357771</v>
       </c>
       <c r="J7" t="n">
         <v>8.222722120123588</v>
@@ -689,11 +689,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>1772</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000142BEDAC950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000018D57A14950&gt;</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>13.04740753792663</v>
+        <v>5.156655954398429</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>10.57</v>
       </c>
       <c r="I8" t="n">
-        <v>8.307143947226059</v>
+        <v>35.2350310271967</v>
       </c>
       <c r="J8" t="n">
         <v>10.15008841752559</v>
@@ -723,11 +723,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>1773</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000142BEC7EB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000018C61E15090&gt;</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6.896517556243074</v>
+        <v>8.541557269199728</v>
       </c>
       <c r="H9" t="n">
         <v>10.57</v>
       </c>
       <c r="I9" t="n">
-        <v>20.124720887337</v>
+        <v>3.883177556735455</v>
       </c>
       <c r="J9" t="n">
         <v>9.048642791702301</v>
@@ -757,11 +757,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>1774</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000142BEC7EC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000018AFA5A9E50&gt;</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.579932185526084</v>
+        <v>18.64522528714038</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>10.57</v>
       </c>
       <c r="I10" t="n">
-        <v>16.30770528057893</v>
+        <v>23.10903748320754</v>
       </c>
       <c r="J10" t="n">
         <v>9.096781148206441</v>
@@ -791,11 +791,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>1775</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000142BA5AABD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000018D57A15990&gt;</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -808,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.042580918513275</v>
+        <v>12.69855991573824</v>
       </c>
       <c r="H11" t="n">
-        <v>10.57</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>10.50747034865826</v>
+        <v>5.388628271186106</v>
       </c>
       <c r="J11" t="n">
         <v>9.610598501938371</v>

--- a/b_df.xlsx
+++ b/b_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,11 +485,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1766</v>
+        <v>180</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x0000018F49E4FB50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000002736ED0AA10&gt;</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -499,16 +499,16 @@
         <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="G2" t="n">
-        <v>10.68973446651506</v>
+        <v>10.01564635576083</v>
       </c>
       <c r="H2" t="n">
         <v>10.57</v>
       </c>
       <c r="I2" t="n">
-        <v>4.088093406540123</v>
+        <v>21.25346446170109</v>
       </c>
       <c r="J2" t="n">
         <v>10.96405234596766</v>
@@ -519,11 +519,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1767</v>
+        <v>181</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001902264FC90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000027367B206D0&gt;</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.583047324609923</v>
+        <v>10.20449752786864</v>
       </c>
       <c r="H3" t="n">
         <v>10.57</v>
       </c>
       <c r="I3" t="n">
-        <v>19.60607910029737</v>
+        <v>5.507875631250251</v>
       </c>
       <c r="J3" t="n">
         <v>9.600157208367223</v>
@@ -553,11 +553,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1768</v>
+        <v>182</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x0000018D85D8E790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000027367AFE410&gt;</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -567,16 +567,16 @@
         <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.343654578630103</v>
+        <v>4.556371337839832</v>
       </c>
       <c r="H4" t="n">
         <v>10.57</v>
       </c>
       <c r="I4" t="n">
-        <v>6.613265249541211</v>
+        <v>32.50078752545622</v>
       </c>
       <c r="J4" t="n">
         <v>10.17873798410574</v>
@@ -587,11 +587,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1769</v>
+        <v>183</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x0000018F90432190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000002736EA54C10&gt;</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -604,13 +604,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>12.11500629710816</v>
+        <v>5.850564216795323</v>
       </c>
       <c r="H5" t="n">
         <v>10.57</v>
       </c>
       <c r="I5" t="n">
-        <v>7.328150334609621</v>
+        <v>19.73071854374077</v>
       </c>
       <c r="J5" t="n">
         <v>11.44089319920146</v>
@@ -621,11 +621,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1770</v>
+        <v>184</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x0000018C62016850&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000027367F27390&gt;</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -638,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.13015804349755</v>
+        <v>17.07253690808166</v>
       </c>
       <c r="H6" t="n">
         <v>10.57</v>
       </c>
       <c r="I6" t="n">
-        <v>6.105288002578111</v>
+        <v>17.47657410821359</v>
       </c>
       <c r="J6" t="n">
         <v>11.06755799014997</v>
@@ -655,11 +655,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1771</v>
+        <v>185</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x0000018D57A151D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000002736728B350&gt;</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>11.80400005930868</v>
+        <v>13.48351977310241</v>
       </c>
       <c r="H7" t="n">
         <v>10.57</v>
       </c>
       <c r="I7" t="n">
-        <v>31.1074226357771</v>
+        <v>19.48296185550266</v>
       </c>
       <c r="J7" t="n">
         <v>8.222722120123588</v>
@@ -689,11 +689,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1772</v>
+        <v>186</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x0000018D57A14950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000027367789010&gt;</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>5.156655954398429</v>
+        <v>7.275164649848607</v>
       </c>
       <c r="H8" t="n">
         <v>10.57</v>
       </c>
       <c r="I8" t="n">
-        <v>35.2350310271967</v>
+        <v>4.941975730673303</v>
       </c>
       <c r="J8" t="n">
         <v>10.15008841752559</v>
@@ -723,11 +723,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1773</v>
+        <v>187</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x0000018C61E15090&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000002736728B6D0&gt;</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>8.541557269199728</v>
+        <v>10.77521600980645</v>
       </c>
       <c r="H9" t="n">
         <v>10.57</v>
       </c>
       <c r="I9" t="n">
-        <v>3.883177556735455</v>
+        <v>7.236360397400944</v>
       </c>
       <c r="J9" t="n">
         <v>9.048642791702301</v>
@@ -757,11 +757,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1774</v>
+        <v>188</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x0000018AFA5A9E50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000027367F908D0&gt;</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>18.64522528714038</v>
+        <v>7.014508679736657</v>
       </c>
       <c r="H10" t="n">
         <v>10.57</v>
       </c>
       <c r="I10" t="n">
-        <v>23.10903748320754</v>
+        <v>8.619768757493254</v>
       </c>
       <c r="J10" t="n">
         <v>9.096781148206441</v>
@@ -791,11 +791,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1775</v>
+        <v>189</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x0000018D57A15990&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000027367AFC8D0&gt;</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -808,16 +808,696 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>12.69855991573824</v>
+        <v>5.213778826335947</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>10.57</v>
       </c>
       <c r="I11" t="n">
-        <v>5.388628271186106</v>
+        <v>4.581716303155481</v>
       </c>
       <c r="J11" t="n">
         <v>9.610598501938371</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>190</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x0000027367AA7CD0&gt;</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E12" t="n">
+        <v>40</v>
+      </c>
+      <c r="F12" t="n">
+        <v>105</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.774693924015752</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I12" t="n">
+        <v>22.6228793446634</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9.344043571160878</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>191</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x0000027367F93650&gt;</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E13" t="n">
+        <v>40</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9.706397992425966</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.467276803339429</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10.65427350696297</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>192</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000002736EA525D0&gt;</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E14" t="n">
+        <v>40</v>
+      </c>
+      <c r="F14" t="n">
+        <v>108</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.695900758663414</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14.89577578275232</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9.961037725146992</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>193</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x00000273656C5490&gt;</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E15" t="n">
+        <v>40</v>
+      </c>
+      <c r="F15" t="n">
+        <v>105</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5.282246674489453</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10.50521153954746</v>
+      </c>
+      <c r="J15" t="n">
+        <v>9.321675016492827</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>194</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000002736EF67410&gt;</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E16" t="n">
+        <v>40</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9.83398581618796</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9.045318641216864</v>
+      </c>
+      <c r="J16" t="n">
+        <v>9.643863232745424</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>195</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x0000027367F93110&gt;</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E17" t="n">
+        <v>40</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.059303086933511</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>40.16709112021415</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9.533674327374266</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>196</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000002736EA81B90&gt;</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E18" t="n">
+        <v>40</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11.48526322847352</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.513818457602819</v>
+      </c>
+      <c r="J18" t="n">
+        <v>10.6940790731576</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>197</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x0000027367AFF8D0&gt;</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E19" t="n">
+        <v>40</v>
+      </c>
+      <c r="F19" t="n">
+        <v>120</v>
+      </c>
+      <c r="G19" t="n">
+        <v>14.32143388621476</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.271330208400137</v>
+      </c>
+      <c r="J19" t="n">
+        <v>8.994841736234198</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>198</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000002736EA80210&gt;</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E20" t="n">
+        <v>40</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>12.85141161022215</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I20" t="n">
+        <v>14.55219596194753</v>
+      </c>
+      <c r="J20" t="n">
+        <v>9.5130677016509</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>199</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x0000027367F90790&gt;</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E21" t="n">
+        <v>40</v>
+      </c>
+      <c r="F21" t="n">
+        <v>108</v>
+      </c>
+      <c r="G21" t="n">
+        <v>21.63607540881824</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I21" t="n">
+        <v>18.49450697856006</v>
+      </c>
+      <c r="J21" t="n">
+        <v>8.345904260698275</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>200</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000002736EF67C50&gt;</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E22" t="n">
+        <v>40</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.896959918042157</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I22" t="n">
+        <v>8.07177498110881</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6.647010184165921</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>201</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000002736EB66F90&gt;</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E23" t="n">
+        <v>40</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>13.56806642264282</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.613783500834502</v>
+      </c>
+      <c r="J23" t="n">
+        <v>9.853618595440359</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>202</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000002736EF666D0&gt;</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E24" t="n">
+        <v>40</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>11.26963491264435</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18.17463327064674</v>
+      </c>
+      <c r="J24" t="n">
+        <v>10.06443619885951</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>203</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x0000027367AFD6D0&gt;</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E25" t="n">
+        <v>40</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>17.26993383876858</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I25" t="n">
+        <v>5.410290714482941</v>
+      </c>
+      <c r="J25" t="n">
+        <v>8.457834979593557</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>204</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000002736EC82C10&gt;</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E26" t="n">
+        <v>40</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>25.98808382356005</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12.08747720600092</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.46975462398761</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>205</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000002736EB6F890&gt;</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E27" t="n">
+        <v>40</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4.353969973716052</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4.288784004719995</v>
+      </c>
+      <c r="J27" t="n">
+        <v>7.745634325401235</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>206</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000002736ED08410&gt;</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E28" t="n">
+        <v>40</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.061092440599062</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5.596587398944997</v>
+      </c>
+      <c r="J28" t="n">
+        <v>9.245758517301445</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>207</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x0000027367B22E10&gt;</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E29" t="n">
+        <v>40</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>19.68047175381929</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7.363020865892842</v>
+      </c>
+      <c r="J29" t="n">
+        <v>9.012816149974165</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>208</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000002736EC83D10&gt;</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E30" t="n">
+        <v>40</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>12.45431435172067</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I30" t="n">
+        <v>11.53545464472704</v>
+      </c>
+      <c r="J30" t="n">
+        <v>10.73277921435846</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>209</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x0000027367E7F850&gt;</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E31" t="n">
+        <v>40</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>21.47847926269372</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I31" t="n">
+        <v>21.68321519909377</v>
+      </c>
+      <c r="J31" t="n">
+        <v>10.66935876990028</v>
       </c>
     </row>
   </sheetData>

--- a/b_df.xlsx
+++ b/b_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89AB90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001CC654A3210&gt;</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -499,16 +499,16 @@
         <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G2" t="n">
-        <v>7.960385275262735</v>
+        <v>15.04641188601676</v>
       </c>
       <c r="H2" t="n">
         <v>10.57</v>
       </c>
       <c r="I2" t="n">
-        <v>8.632174487512932</v>
+        <v>52.74779428907736</v>
       </c>
       <c r="J2" t="n">
         <v>10.96405234596766</v>
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E899690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001CC654A0550&gt;</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.449546329457746</v>
+        <v>4.775878019739316</v>
       </c>
       <c r="H3" t="n">
         <v>10.57</v>
       </c>
       <c r="I3" t="n">
-        <v>8.158891840497191</v>
+        <v>17.08561079022747</v>
       </c>
       <c r="J3" t="n">
         <v>9.600157208367223</v>
@@ -557,7 +557,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003FC5FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001CC654A08D0&gt;</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>14.79837461502337</v>
+        <v>7.752172532319022</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>10.57</v>
       </c>
       <c r="I4" t="n">
-        <v>17.47371483784452</v>
+        <v>50.15670895374448</v>
       </c>
       <c r="J4" t="n">
         <v>10.17873798410574</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F9650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001CC654A1110&gt;</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -604,13 +604,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.067747440365427</v>
+        <v>4.335403608649338</v>
       </c>
       <c r="H5" t="n">
         <v>10.57</v>
       </c>
       <c r="I5" t="n">
-        <v>8.913986050640542</v>
+        <v>8.103759976968625</v>
       </c>
       <c r="J5" t="n">
         <v>11.44089319920146</v>
@@ -625,7 +625,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003E89BC10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001CC654A1550&gt;</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -638,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>13.81973372208448</v>
+        <v>27.42316593112403</v>
       </c>
       <c r="H6" t="n">
         <v>10.57</v>
       </c>
       <c r="I6" t="n">
-        <v>3.635349633010245</v>
+        <v>5.873252131986996</v>
       </c>
       <c r="J6" t="n">
         <v>11.06755799014997</v>
@@ -659,7 +659,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1FBED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001CC654A1810&gt;</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>27.48993058344926</v>
+        <v>8.429008216582137</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>10.57</v>
       </c>
       <c r="I7" t="n">
-        <v>6.769408932509577</v>
+        <v>14.18462506518085</v>
       </c>
       <c r="J7" t="n">
         <v>8.222722120123588</v>
@@ -693,7 +693,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002003F1F8290&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001CC654A1AD0&gt;</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -706,16 +706,118 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>12.02529303979724</v>
+        <v>25.20906998860684</v>
       </c>
       <c r="H8" t="n">
         <v>10.57</v>
       </c>
       <c r="I8" t="n">
-        <v>20.71190089223968</v>
+        <v>6.017359963846069</v>
       </c>
       <c r="J8" t="n">
         <v>10.15008841752559</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001CC654A21D0&gt;</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E9" t="n">
+        <v>40</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.01970875388948</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I9" t="n">
+        <v>16.52509820579976</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9.048642791702301</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001CC654A23D0&gt;</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E10" t="n">
+        <v>40</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.22512520994576</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I10" t="n">
+        <v>31.31479070619929</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9.096781148206441</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001CC654A1490&gt;</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E11" t="n">
+        <v>40</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.77832231971807</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.440307815955244</v>
+      </c>
+      <c r="J11" t="n">
+        <v>9.610598501938371</v>
       </c>
     </row>
   </sheetData>

--- a/b_df.xlsx
+++ b/b_df.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001CC654A3210&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -499,16 +499,16 @@
         <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15.04641188601676</v>
+        <v>8.092944235783254</v>
       </c>
       <c r="H2" t="n">
         <v>10.57</v>
       </c>
       <c r="I2" t="n">
-        <v>52.74779428907736</v>
+        <v>26.21641402471921</v>
       </c>
       <c r="J2" t="n">
         <v>10.96405234596766</v>
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001CC654A0550&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.775878019739316</v>
+        <v>20.83894641170696</v>
       </c>
       <c r="H3" t="n">
         <v>10.57</v>
       </c>
       <c r="I3" t="n">
-        <v>17.08561079022747</v>
+        <v>7.421459665928201</v>
       </c>
       <c r="J3" t="n">
         <v>9.600157208367223</v>
@@ -557,7 +557,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001CC654A08D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7.752172532319022</v>
+        <v>4.262921281204147</v>
       </c>
       <c r="H4" t="n">
         <v>10.57</v>
       </c>
       <c r="I4" t="n">
-        <v>50.15670895374448</v>
+        <v>14.22225237810268</v>
       </c>
       <c r="J4" t="n">
         <v>10.17873798410574</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001CC654A1110&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -604,13 +604,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.335403608649338</v>
+        <v>16.10884698466955</v>
       </c>
       <c r="H5" t="n">
         <v>10.57</v>
       </c>
       <c r="I5" t="n">
-        <v>8.103759976968625</v>
+        <v>8.758682382049395</v>
       </c>
       <c r="J5" t="n">
         <v>11.44089319920146</v>
@@ -625,7 +625,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001CC654A1550&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -638,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>27.42316593112403</v>
+        <v>5.235865470440293</v>
       </c>
       <c r="H6" t="n">
         <v>10.57</v>
       </c>
       <c r="I6" t="n">
-        <v>5.873252131986996</v>
+        <v>9.957885562123209</v>
       </c>
       <c r="J6" t="n">
         <v>11.06755799014997</v>
@@ -659,7 +659,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001CC654A1810&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>8.429008216582137</v>
+        <v>5.689572361914922</v>
       </c>
       <c r="H7" t="n">
         <v>10.57</v>
       </c>
       <c r="I7" t="n">
-        <v>14.18462506518085</v>
+        <v>13.24500386671677</v>
       </c>
       <c r="J7" t="n">
         <v>8.222722120123588</v>
@@ -693,7 +693,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001CC654A1AD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>25.20906998860684</v>
+        <v>6.624710756998347</v>
       </c>
       <c r="H8" t="n">
         <v>10.57</v>
       </c>
       <c r="I8" t="n">
-        <v>6.017359963846069</v>
+        <v>6.740510347676921</v>
       </c>
       <c r="J8" t="n">
         <v>10.15008841752559</v>
@@ -727,7 +727,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001CC654A21D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10.01970875388948</v>
+        <v>9.815751870894772</v>
       </c>
       <c r="H9" t="n">
         <v>10.57</v>
       </c>
       <c r="I9" t="n">
-        <v>16.52509820579976</v>
+        <v>19.37815964314971</v>
       </c>
       <c r="J9" t="n">
         <v>9.048642791702301</v>
@@ -761,7 +761,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001CC654A23D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.22512520994576</v>
+        <v>5.309141009743146</v>
       </c>
       <c r="H10" t="n">
         <v>10.57</v>
       </c>
       <c r="I10" t="n">
-        <v>31.31479070619929</v>
+        <v>26.87143188381797</v>
       </c>
       <c r="J10" t="n">
         <v>9.096781148206441</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001CC654A1490&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -808,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.77832231971807</v>
+        <v>3.972212280205519</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>10.57</v>
       </c>
       <c r="I11" t="n">
-        <v>6.440307815955244</v>
+        <v>9.547133088722376</v>
       </c>
       <c r="J11" t="n">
         <v>9.610598501938371</v>

--- a/b_df.xlsx
+++ b/b_df.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A8354190&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E782C03090&gt;</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -502,13 +502,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>8.092944235783254</v>
+        <v>4.558594024346748</v>
       </c>
       <c r="H2" t="n">
-        <v>10.57</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>26.21641402471921</v>
+        <v>7.549857829483546</v>
       </c>
       <c r="J2" t="n">
         <v>10.96405234596766</v>
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2724390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E7804AFF50&gt;</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>20.83894641170696</v>
+        <v>9.994117823433328</v>
       </c>
       <c r="H3" t="n">
         <v>10.57</v>
       </c>
       <c r="I3" t="n">
-        <v>7.421459665928201</v>
+        <v>13.35831707259888</v>
       </c>
       <c r="J3" t="n">
         <v>9.600157208367223</v>
@@ -557,7 +557,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198A9965F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E782DA9390&gt;</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.262921281204147</v>
+        <v>20.86020829870003</v>
       </c>
       <c r="H4" t="n">
         <v>10.57</v>
       </c>
       <c r="I4" t="n">
-        <v>14.22225237810268</v>
+        <v>8.545549680531575</v>
       </c>
       <c r="J4" t="n">
         <v>10.17873798410574</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B20658D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E780309FD0&gt;</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -604,13 +604,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>16.10884698466955</v>
+        <v>31.30957989156325</v>
       </c>
       <c r="H5" t="n">
         <v>10.57</v>
       </c>
       <c r="I5" t="n">
-        <v>8.758682382049395</v>
+        <v>41.81996940997271</v>
       </c>
       <c r="J5" t="n">
         <v>11.44089319920146</v>
@@ -625,7 +625,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198B2725690&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E782CA2010&gt;</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -638,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5.235865470440293</v>
+        <v>4.692896436942904</v>
       </c>
       <c r="H6" t="n">
         <v>10.57</v>
       </c>
       <c r="I6" t="n">
-        <v>9.957885562123209</v>
+        <v>11.01765782958361</v>
       </c>
       <c r="J6" t="n">
         <v>11.06755799014997</v>
@@ -659,7 +659,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E780221710&gt;</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5.689572361914922</v>
+        <v>11.511948905071</v>
       </c>
       <c r="H7" t="n">
-        <v>10.57</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>13.24500386671677</v>
+        <v>9.092649555729189</v>
       </c>
       <c r="J7" t="n">
         <v>8.222722120123588</v>
@@ -693,7 +693,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E780223550&gt;</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>6.624710756998347</v>
+        <v>4.449041314942946</v>
       </c>
       <c r="H8" t="n">
-        <v>10.57</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>6.740510347676921</v>
+        <v>4.152982905834425</v>
       </c>
       <c r="J8" t="n">
         <v>10.15008841752559</v>
@@ -727,7 +727,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ECD50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E780221750&gt;</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>9.815751870894772</v>
+        <v>14.58877561852719</v>
       </c>
       <c r="H9" t="n">
         <v>10.57</v>
       </c>
       <c r="I9" t="n">
-        <v>19.37815964314971</v>
+        <v>23.69276483116812</v>
       </c>
       <c r="J9" t="n">
         <v>9.048642791702301</v>
@@ -761,7 +761,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8EFAD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E78041D4D0&gt;</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>5.309141009743146</v>
+        <v>11.98991920880145</v>
       </c>
       <c r="H10" t="n">
         <v>10.57</v>
       </c>
       <c r="I10" t="n">
-        <v>26.87143188381797</v>
+        <v>11.75015264334031</v>
       </c>
       <c r="J10" t="n">
         <v>9.096781148206441</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000198AA8ED7D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E782A8FE50&gt;</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -808,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.972212280205519</v>
+        <v>6.647026366299166</v>
       </c>
       <c r="H11" t="n">
         <v>10.57</v>
       </c>
       <c r="I11" t="n">
-        <v>9.547133088722376</v>
+        <v>4.131813628053326</v>
       </c>
       <c r="J11" t="n">
         <v>9.610598501938371</v>

--- a/b_df.xlsx
+++ b/b_df.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E782C03090&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000213E2DFD210&gt;</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -502,16 +502,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.558594024346748</v>
+        <v>10.31519048827266</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>10.57</v>
       </c>
       <c r="I2" t="n">
-        <v>7.549857829483546</v>
+        <v>7.319382908349153</v>
       </c>
       <c r="J2" t="n">
-        <v>10.96405234596766</v>
+        <v>12.72810469193533</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E7804AFF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000213E2E9AD10&gt;</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -536,16 +536,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.994117823433328</v>
+        <v>10.31519048827266</v>
       </c>
       <c r="H3" t="n">
         <v>10.57</v>
       </c>
       <c r="I3" t="n">
-        <v>13.35831707259888</v>
+        <v>7.319382908349153</v>
       </c>
       <c r="J3" t="n">
-        <v>9.600157208367223</v>
+        <v>10.00031441673445</v>
       </c>
     </row>
     <row r="4">
@@ -557,7 +557,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E782DA9390&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000213E2789890&gt;</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -570,16 +570,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>20.86020829870003</v>
+        <v>10.31519048827266</v>
       </c>
       <c r="H4" t="n">
         <v>10.57</v>
       </c>
       <c r="I4" t="n">
-        <v>8.545549680531575</v>
+        <v>7.319382908349153</v>
       </c>
       <c r="J4" t="n">
-        <v>10.17873798410574</v>
+        <v>11.15747596821148</v>
       </c>
     </row>
     <row r="5">
@@ -591,7 +591,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E780309FD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000213E2D2F110&gt;</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -604,16 +604,16 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>31.30957989156325</v>
+        <v>10.31519048827266</v>
       </c>
       <c r="H5" t="n">
         <v>10.57</v>
       </c>
       <c r="I5" t="n">
-        <v>41.81996940997271</v>
+        <v>7.319382908349153</v>
       </c>
       <c r="J5" t="n">
-        <v>11.44089319920146</v>
+        <v>13.68178639840291</v>
       </c>
     </row>
     <row r="6">
@@ -625,7 +625,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E782CA2010&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000213E2C27710&gt;</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -638,16 +638,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.692896436942904</v>
+        <v>10.31519048827266</v>
       </c>
       <c r="H6" t="n">
         <v>10.57</v>
       </c>
       <c r="I6" t="n">
-        <v>11.01765782958361</v>
+        <v>7.319382908349153</v>
       </c>
       <c r="J6" t="n">
-        <v>11.06755799014997</v>
+        <v>12.93511598029993</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E780221710&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000213E247C950&gt;</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -672,16 +672,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>11.511948905071</v>
+        <v>10.31519048827266</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>10.57</v>
       </c>
       <c r="I7" t="n">
-        <v>9.092649555729189</v>
+        <v>7.319382908349153</v>
       </c>
       <c r="J7" t="n">
-        <v>8.222722120123588</v>
+        <v>7.245444240247178</v>
       </c>
     </row>
     <row r="8">
@@ -693,7 +693,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E780223550&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000213E2BA3C90&gt;</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.449041314942946</v>
+        <v>10.31519048827266</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>10.57</v>
       </c>
       <c r="I8" t="n">
-        <v>4.152982905834425</v>
+        <v>7.319382908349153</v>
       </c>
       <c r="J8" t="n">
-        <v>10.15008841752559</v>
+        <v>11.10017683505118</v>
       </c>
     </row>
     <row r="9">
@@ -727,7 +727,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E780221750&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000213E2EB3090&gt;</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>14.58877561852719</v>
+        <v>10.31519048827266</v>
       </c>
       <c r="H9" t="n">
         <v>10.57</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69276483116812</v>
+        <v>7.319382908349153</v>
       </c>
       <c r="J9" t="n">
-        <v>9.048642791702301</v>
+        <v>8.897285583404603</v>
       </c>
     </row>
     <row r="10">
@@ -761,7 +761,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E78041D4D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000213E2BA2B50&gt;</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>11.98991920880145</v>
+        <v>10.31519048827266</v>
       </c>
       <c r="H10" t="n">
         <v>10.57</v>
       </c>
       <c r="I10" t="n">
-        <v>11.75015264334031</v>
+        <v>7.319382908349153</v>
       </c>
       <c r="J10" t="n">
-        <v>9.096781148206441</v>
+        <v>8.993562296412884</v>
       </c>
     </row>
     <row r="11">
@@ -795,7 +795,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E782A8FE50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000213E298D610&gt;</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -808,16 +808,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.647026366299166</v>
+        <v>10.31519048827266</v>
       </c>
       <c r="H11" t="n">
         <v>10.57</v>
       </c>
       <c r="I11" t="n">
-        <v>4.131813628053326</v>
+        <v>7.319382908349153</v>
       </c>
       <c r="J11" t="n">
-        <v>9.610598501938371</v>
+        <v>10.02119700387674</v>
       </c>
     </row>
   </sheetData>

--- a/b_df.xlsx
+++ b/b_df.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000213E2DFD210&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E239E47550&gt;</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -502,13 +502,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>10.31519048827266</v>
+        <v>3.64513793119204</v>
       </c>
       <c r="H2" t="n">
         <v>10.57</v>
       </c>
       <c r="I2" t="n">
-        <v>7.319382908349153</v>
+        <v>4.807942639991795</v>
       </c>
       <c r="J2" t="n">
         <v>12.72810469193533</v>
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000213E2E9AD10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E22D2C8B90&gt;</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10.31519048827266</v>
+        <v>3.64513793119204</v>
       </c>
       <c r="H3" t="n">
         <v>10.57</v>
       </c>
       <c r="I3" t="n">
-        <v>7.319382908349153</v>
+        <v>4.807942639991795</v>
       </c>
       <c r="J3" t="n">
         <v>10.00031441673445</v>
@@ -557,7 +557,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000213E2789890&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E23A229E50&gt;</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10.31519048827266</v>
+        <v>3.64513793119204</v>
       </c>
       <c r="H4" t="n">
         <v>10.57</v>
       </c>
       <c r="I4" t="n">
-        <v>7.319382908349153</v>
+        <v>4.807942639991795</v>
       </c>
       <c r="J4" t="n">
         <v>11.15747596821148</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000213E2D2F110&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E235795290&gt;</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -604,13 +604,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>10.31519048827266</v>
+        <v>3.64513793119204</v>
       </c>
       <c r="H5" t="n">
         <v>10.57</v>
       </c>
       <c r="I5" t="n">
-        <v>7.319382908349153</v>
+        <v>4.807942639991795</v>
       </c>
       <c r="J5" t="n">
         <v>13.68178639840291</v>
@@ -625,7 +625,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000213E2C27710&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E23A692F50&gt;</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -638,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.31519048827266</v>
+        <v>3.64513793119204</v>
       </c>
       <c r="H6" t="n">
         <v>10.57</v>
       </c>
       <c r="I6" t="n">
-        <v>7.319382908349153</v>
+        <v>4.807942639991795</v>
       </c>
       <c r="J6" t="n">
         <v>12.93511598029993</v>
@@ -659,7 +659,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000213E247C950&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E235A41650&gt;</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -672,13 +672,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>10.31519048827266</v>
+        <v>3.64513793119204</v>
       </c>
       <c r="H7" t="n">
         <v>10.57</v>
       </c>
       <c r="I7" t="n">
-        <v>7.319382908349153</v>
+        <v>4.807942639991795</v>
       </c>
       <c r="J7" t="n">
         <v>7.245444240247178</v>
@@ -693,7 +693,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000213E2BA3C90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E2391F6790&gt;</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>10.31519048827266</v>
+        <v>3.64513793119204</v>
       </c>
       <c r="H8" t="n">
         <v>10.57</v>
       </c>
       <c r="I8" t="n">
-        <v>7.319382908349153</v>
+        <v>4.807942639991795</v>
       </c>
       <c r="J8" t="n">
         <v>11.10017683505118</v>
@@ -727,7 +727,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000213E2EB3090&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E23A2F5150&gt;</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>10.31519048827266</v>
+        <v>3.64513793119204</v>
       </c>
       <c r="H9" t="n">
         <v>10.57</v>
       </c>
       <c r="I9" t="n">
-        <v>7.319382908349153</v>
+        <v>4.807942639991795</v>
       </c>
       <c r="J9" t="n">
         <v>8.897285583404603</v>
@@ -761,7 +761,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000213E2BA2B50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E235A40F10&gt;</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>10.31519048827266</v>
+        <v>3.64513793119204</v>
       </c>
       <c r="H10" t="n">
         <v>10.57</v>
       </c>
       <c r="I10" t="n">
-        <v>7.319382908349153</v>
+        <v>4.807942639991795</v>
       </c>
       <c r="J10" t="n">
         <v>8.993562296412884</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000213E298D610&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001E239CB16D0&gt;</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -808,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>10.31519048827266</v>
+        <v>3.64513793119204</v>
       </c>
       <c r="H11" t="n">
         <v>10.57</v>
       </c>
       <c r="I11" t="n">
-        <v>7.319382908349153</v>
+        <v>4.807942639991795</v>
       </c>
       <c r="J11" t="n">
         <v>10.02119700387674</v>

--- a/b_df.xlsx
+++ b/b_df.xlsx
@@ -489,26 +489,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E239E47550&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000002129F21B090&gt;</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>10.52</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.64513793119204</v>
+        <v>3.680538224767272</v>
       </c>
       <c r="H2" t="n">
         <v>10.57</v>
       </c>
       <c r="I2" t="n">
-        <v>4.807942639991795</v>
+        <v>19.48469916067341</v>
       </c>
       <c r="J2" t="n">
         <v>12.72810469193533</v>
@@ -523,26 +523,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E22D2C8B90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000212A2BEEF10&gt;</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>10.52</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.64513793119204</v>
+        <v>3.680538224767272</v>
       </c>
       <c r="H3" t="n">
         <v>10.57</v>
       </c>
       <c r="I3" t="n">
-        <v>4.807942639991795</v>
+        <v>19.48469916067341</v>
       </c>
       <c r="J3" t="n">
         <v>10.00031441673445</v>
@@ -557,26 +557,26 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E23A229E50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000212A15B4D50&gt;</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>10.52</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.64513793119204</v>
+        <v>3.680538224767272</v>
       </c>
       <c r="H4" t="n">
         <v>10.57</v>
       </c>
       <c r="I4" t="n">
-        <v>4.807942639991795</v>
+        <v>19.48469916067341</v>
       </c>
       <c r="J4" t="n">
         <v>11.15747596821148</v>
@@ -591,26 +591,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E235795290&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000002129EAD8D90&gt;</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>10.52</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.64513793119204</v>
+        <v>3.680538224767272</v>
       </c>
       <c r="H5" t="n">
         <v>10.57</v>
       </c>
       <c r="I5" t="n">
-        <v>4.807942639991795</v>
+        <v>19.48469916067341</v>
       </c>
       <c r="J5" t="n">
         <v>13.68178639840291</v>
@@ -625,26 +625,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E23A692F50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000002129F3C70D0&gt;</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>10.52</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.64513793119204</v>
+        <v>3.680538224767272</v>
       </c>
       <c r="H6" t="n">
         <v>10.57</v>
       </c>
       <c r="I6" t="n">
-        <v>4.807942639991795</v>
+        <v>19.48469916067341</v>
       </c>
       <c r="J6" t="n">
         <v>12.93511598029993</v>
@@ -659,26 +659,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E235A41650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000002129F587550&gt;</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>10.52</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.64513793119204</v>
+        <v>3.680538224767272</v>
       </c>
       <c r="H7" t="n">
         <v>10.57</v>
       </c>
       <c r="I7" t="n">
-        <v>4.807942639991795</v>
+        <v>19.48469916067341</v>
       </c>
       <c r="J7" t="n">
         <v>7.245444240247178</v>
@@ -693,26 +693,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E2391F6790&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000212A1B1DA50&gt;</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>10.52</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.64513793119204</v>
+        <v>3.680538224767272</v>
       </c>
       <c r="H8" t="n">
         <v>10.57</v>
       </c>
       <c r="I8" t="n">
-        <v>4.807942639991795</v>
+        <v>19.48469916067341</v>
       </c>
       <c r="J8" t="n">
         <v>11.10017683505118</v>
@@ -727,26 +727,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E23A2F5150&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000212A2668FD0&gt;</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>10.52</v>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.64513793119204</v>
+        <v>3.680538224767272</v>
       </c>
       <c r="H9" t="n">
         <v>10.57</v>
       </c>
       <c r="I9" t="n">
-        <v>4.807942639991795</v>
+        <v>19.48469916067341</v>
       </c>
       <c r="J9" t="n">
         <v>8.897285583404603</v>
@@ -761,26 +761,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E235A40F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000212A2A20150&gt;</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>10.52</v>
       </c>
       <c r="E10" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.64513793119204</v>
+        <v>3.680538224767272</v>
       </c>
       <c r="H10" t="n">
         <v>10.57</v>
       </c>
       <c r="I10" t="n">
-        <v>4.807942639991795</v>
+        <v>19.48469916067341</v>
       </c>
       <c r="J10" t="n">
         <v>8.993562296412884</v>
@@ -795,26 +795,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001E239CB16D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000212A26D9B10&gt;</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>10.52</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.64513793119204</v>
+        <v>3.680538224767272</v>
       </c>
       <c r="H11" t="n">
         <v>10.57</v>
       </c>
       <c r="I11" t="n">
-        <v>4.807942639991795</v>
+        <v>19.48469916067341</v>
       </c>
       <c r="J11" t="n">
         <v>10.02119700387674</v>

--- a/b_df.xlsx
+++ b/b_df.xlsx
@@ -489,26 +489,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002129F21B090&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000002384556F710&gt;</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>10.52</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.680538224767272</v>
+        <v>12.81577540229763</v>
       </c>
       <c r="H2" t="n">
         <v>10.57</v>
       </c>
       <c r="I2" t="n">
-        <v>19.48469916067341</v>
+        <v>9.436132621383583</v>
       </c>
       <c r="J2" t="n">
         <v>12.72810469193533</v>
@@ -523,29 +523,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000212A2BEEF10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000238450AA3D0&gt;</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>10.52</v>
       </c>
       <c r="E3" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.680538224767272</v>
+        <v>4.399588045753082</v>
       </c>
       <c r="H3" t="n">
         <v>10.57</v>
       </c>
       <c r="I3" t="n">
-        <v>19.48469916067341</v>
+        <v>11.09516721972283</v>
       </c>
       <c r="J3" t="n">
-        <v>10.00031441673445</v>
+        <v>12.72810469193533</v>
       </c>
     </row>
     <row r="4">
@@ -557,7 +557,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000212A15B4D50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000023845581350&gt;</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -570,16 +570,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.680538224767272</v>
+        <v>4.002227395397102</v>
       </c>
       <c r="H4" t="n">
         <v>10.57</v>
       </c>
       <c r="I4" t="n">
-        <v>19.48469916067341</v>
+        <v>30.17434458823411</v>
       </c>
       <c r="J4" t="n">
-        <v>11.15747596821148</v>
+        <v>12.72810469193533</v>
       </c>
     </row>
     <row r="5">
@@ -591,29 +591,29 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002129EAD8D90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000023847A4AF50&gt;</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>10.52</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.680538224767272</v>
+        <v>13.57336242233603</v>
       </c>
       <c r="H5" t="n">
         <v>10.57</v>
       </c>
       <c r="I5" t="n">
-        <v>19.48469916067341</v>
+        <v>4.807839895217286</v>
       </c>
       <c r="J5" t="n">
-        <v>13.68178639840291</v>
+        <v>12.72810469193533</v>
       </c>
     </row>
     <row r="6">
@@ -625,29 +625,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002129F3C70D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000023845582CD0&gt;</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>10.52</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.680538224767272</v>
+        <v>9.860323502390823</v>
       </c>
       <c r="H6" t="n">
         <v>10.57</v>
       </c>
       <c r="I6" t="n">
-        <v>19.48469916067341</v>
+        <v>30.74667009036684</v>
       </c>
       <c r="J6" t="n">
-        <v>12.93511598029993</v>
+        <v>12.72810469193533</v>
       </c>
     </row>
     <row r="7">
@@ -659,29 +659,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002129F587550&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000023845198F10&gt;</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>10.52</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.680538224767272</v>
+        <v>8.237734928962382</v>
       </c>
       <c r="H7" t="n">
         <v>10.57</v>
       </c>
       <c r="I7" t="n">
-        <v>19.48469916067341</v>
+        <v>3.980685470109719</v>
       </c>
       <c r="J7" t="n">
-        <v>7.245444240247178</v>
+        <v>12.72810469193533</v>
       </c>
     </row>
     <row r="8">
@@ -693,7 +693,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000212A1B1DA50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000023845198210&gt;</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.680538224767272</v>
+        <v>13.39478731307916</v>
       </c>
       <c r="H8" t="n">
-        <v>10.57</v>
+        <v>3.5</v>
       </c>
       <c r="I8" t="n">
-        <v>19.48469916067341</v>
+        <v>14.15157815418438</v>
       </c>
       <c r="J8" t="n">
-        <v>11.10017683505118</v>
+        <v>12.72810469193533</v>
       </c>
     </row>
     <row r="9">
@@ -727,29 +727,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000212A2668FD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x0000023845463650&gt;</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>10.52</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.680538224767272</v>
+        <v>9.356637380953179</v>
       </c>
       <c r="H9" t="n">
         <v>10.57</v>
       </c>
       <c r="I9" t="n">
-        <v>19.48469916067341</v>
+        <v>4.27028935436398</v>
       </c>
       <c r="J9" t="n">
-        <v>8.897285583404603</v>
+        <v>12.72810469193533</v>
       </c>
     </row>
     <row r="10">
@@ -761,29 +761,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000212A2A20150&gt;</t>
+          <t>&lt;__main__.Entity object at 0x00000238451945D0&gt;</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>10.52</v>
       </c>
       <c r="E10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.680538224767272</v>
+        <v>25.09403465307279</v>
       </c>
       <c r="H10" t="n">
         <v>10.57</v>
       </c>
       <c r="I10" t="n">
-        <v>19.48469916067341</v>
+        <v>5.023244484767547</v>
       </c>
       <c r="J10" t="n">
-        <v>8.993562296412884</v>
+        <v>12.72810469193533</v>
       </c>
     </row>
     <row r="11">
@@ -795,29 +795,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000212A26D9B10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000002384556FE10&gt;</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>10.52</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.680538224767272</v>
+        <v>4.665692468590814</v>
       </c>
       <c r="H11" t="n">
         <v>10.57</v>
       </c>
       <c r="I11" t="n">
-        <v>19.48469916067341</v>
+        <v>14.0200956087878</v>
       </c>
       <c r="J11" t="n">
-        <v>10.02119700387674</v>
+        <v>12.72810469193533</v>
       </c>
     </row>
   </sheetData>

--- a/b_df.xlsx
+++ b/b_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,26 +489,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002384556F710&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001D5C0EE6850&gt;</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>10.52</v>
       </c>
       <c r="E2" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.81577540229763</v>
+        <v>4.608214024136408</v>
       </c>
       <c r="H2" t="n">
         <v>10.57</v>
       </c>
       <c r="I2" t="n">
-        <v>9.436132621383583</v>
+        <v>4.70720152832842</v>
       </c>
       <c r="J2" t="n">
         <v>12.72810469193533</v>
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000238450AA3D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001D5B2907ED0&gt;</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.399588045753082</v>
+        <v>5.579358695533427</v>
       </c>
       <c r="H3" t="n">
         <v>10.57</v>
       </c>
       <c r="I3" t="n">
-        <v>11.09516721972283</v>
+        <v>16.62763620325786</v>
       </c>
       <c r="J3" t="n">
         <v>12.72810469193533</v>
@@ -557,26 +557,26 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x0000023845581350&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001D5B2906BD0&gt;</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>10.52</v>
       </c>
       <c r="E4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.002227395397102</v>
+        <v>40.63133521434631</v>
       </c>
       <c r="H4" t="n">
         <v>10.57</v>
       </c>
       <c r="I4" t="n">
-        <v>30.17434458823411</v>
+        <v>4.754860543060837</v>
       </c>
       <c r="J4" t="n">
         <v>12.72810469193533</v>
@@ -591,26 +591,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x0000023847A4AF50&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001D5B2904650&gt;</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>10.52</v>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G5" t="n">
-        <v>13.57336242233603</v>
+        <v>4.027220545445494</v>
       </c>
       <c r="H5" t="n">
         <v>10.57</v>
       </c>
       <c r="I5" t="n">
-        <v>4.807839895217286</v>
+        <v>7.585443113074296</v>
       </c>
       <c r="J5" t="n">
         <v>12.72810469193533</v>
@@ -625,26 +625,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x0000023845582CD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001D5D836DA90&gt;</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>10.52</v>
       </c>
       <c r="E6" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>9.860323502390823</v>
+        <v>14.04668812262235</v>
       </c>
       <c r="H6" t="n">
         <v>10.57</v>
       </c>
       <c r="I6" t="n">
-        <v>30.74667009036684</v>
+        <v>14.35581997552413</v>
       </c>
       <c r="J6" t="n">
         <v>12.72810469193533</v>
@@ -659,26 +659,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x0000023845198F10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001D5B28E6D10&gt;</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>10.52</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>8.237734928962382</v>
+        <v>3.5738387476926</v>
       </c>
       <c r="H7" t="n">
         <v>10.57</v>
       </c>
       <c r="I7" t="n">
-        <v>3.980685470109719</v>
+        <v>3.97405513981598</v>
       </c>
       <c r="J7" t="n">
         <v>12.72810469193533</v>
@@ -693,26 +693,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x0000023845198210&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001D5B28E57D0&gt;</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>10.52</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>13.39478731307916</v>
+        <v>10.58787906626928</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>10.57</v>
       </c>
       <c r="I8" t="n">
-        <v>14.15157815418438</v>
+        <v>8.561034937986889</v>
       </c>
       <c r="J8" t="n">
         <v>12.72810469193533</v>
@@ -727,7 +727,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x0000023845463650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001D5B28E54D0&gt;</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>9.356637380953179</v>
+        <v>8.841824280987646</v>
       </c>
       <c r="H9" t="n">
         <v>10.57</v>
       </c>
       <c r="I9" t="n">
-        <v>4.27028935436398</v>
+        <v>5.482229481218934</v>
       </c>
       <c r="J9" t="n">
         <v>12.72810469193533</v>
@@ -761,26 +761,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x00000238451945D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001D5B1B978D0&gt;</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>10.52</v>
       </c>
       <c r="E10" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>25.09403465307279</v>
+        <v>6.017962142797566</v>
       </c>
       <c r="H10" t="n">
         <v>10.57</v>
       </c>
       <c r="I10" t="n">
-        <v>5.023244484767547</v>
+        <v>4.588603925729911</v>
       </c>
       <c r="J10" t="n">
         <v>12.72810469193533</v>
@@ -795,28 +795,368 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000002384556FE10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001D5D9C736D0&gt;</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>10.52</v>
       </c>
       <c r="E11" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.665692468590814</v>
+        <v>15.9517410301713</v>
       </c>
       <c r="H11" t="n">
         <v>10.57</v>
       </c>
       <c r="I11" t="n">
-        <v>14.0200956087878</v>
+        <v>4.73688743675143</v>
       </c>
       <c r="J11" t="n">
+        <v>12.72810469193533</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5B28E7890&gt;</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E12" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5.623890895045973</v>
+      </c>
+      <c r="H12" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.853438073376795</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12.72810469193533</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5B28E69D0&gt;</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E13" t="n">
+        <v>40</v>
+      </c>
+      <c r="F13" t="n">
+        <v>108</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13.18368914181566</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7.254462710300978</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12.72810469193533</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5D98C4DD0&gt;</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E14" t="n">
+        <v>40</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>7.190285227467085</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4.370455536235069</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12.72810469193533</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5B28E7DD0&gt;</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>9.053249700271094</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.121998983528494</v>
+      </c>
+      <c r="J15" t="n">
+        <v>12.72810469193533</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5B28E6490&gt;</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E16" t="n">
+        <v>40</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>8.590688827448366</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.147828581440767</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12.72810469193533</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5B28E7A10&gt;</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E17" t="n">
+        <v>20</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.855931844184644</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.299838719297433</v>
+      </c>
+      <c r="J17" t="n">
+        <v>12.72810469193533</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5B28E7010&gt;</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E18" t="n">
+        <v>40</v>
+      </c>
+      <c r="F18" t="n">
+        <v>108</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16.87185550548681</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15.68529183532612</v>
+      </c>
+      <c r="J18" t="n">
+        <v>12.72810469193533</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5B28E6890&gt;</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E19" t="n">
+        <v>20</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6.489574928392765</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I19" t="n">
+        <v>11.44965442746453</v>
+      </c>
+      <c r="J19" t="n">
+        <v>12.72810469193533</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5B28E5D10&gt;</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E20" t="n">
+        <v>20</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3.54174415151518</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5.088468837463197</v>
+      </c>
+      <c r="J20" t="n">
+        <v>12.72810469193533</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>&lt;__main__.Entity object at 0x000001D5B28E46D0&gt;</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="E21" t="n">
+        <v>20</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4.226497274696391</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="I21" t="n">
+        <v>15.8904807227925</v>
+      </c>
+      <c r="J21" t="n">
         <v>12.72810469193533</v>
       </c>
     </row>

--- a/b_df.xlsx
+++ b/b_df.xlsx
@@ -489,26 +489,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5C0EE6850&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACF0E38650&gt;</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>10.52</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.608214024136408</v>
+        <v>9.567577650251922</v>
       </c>
       <c r="H2" t="n">
         <v>10.57</v>
       </c>
       <c r="I2" t="n">
-        <v>4.70720152832842</v>
+        <v>10.76355164151426</v>
       </c>
       <c r="J2" t="n">
         <v>12.72810469193533</v>
@@ -523,7 +523,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B2907ED0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001AC89CA4610&gt;</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -536,13 +536,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5.579358695533427</v>
+        <v>21.74628571655215</v>
       </c>
       <c r="H3" t="n">
         <v>10.57</v>
       </c>
       <c r="I3" t="n">
-        <v>16.62763620325786</v>
+        <v>63.42603934580699</v>
       </c>
       <c r="J3" t="n">
         <v>12.72810469193533</v>
@@ -557,7 +557,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B2906BD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F0490&gt;</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -570,13 +570,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>40.63133521434631</v>
+        <v>13.06154853004784</v>
       </c>
       <c r="H4" t="n">
         <v>10.57</v>
       </c>
       <c r="I4" t="n">
-        <v>4.754860543060837</v>
+        <v>6.456683704820997</v>
       </c>
       <c r="J4" t="n">
         <v>12.72810469193533</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B2904650&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F0550&gt;</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -601,16 +601,16 @@
         <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.027220545445494</v>
+        <v>6.180207684089524</v>
       </c>
       <c r="H5" t="n">
         <v>10.57</v>
       </c>
       <c r="I5" t="n">
-        <v>7.585443113074296</v>
+        <v>8.131038132346024</v>
       </c>
       <c r="J5" t="n">
         <v>12.72810469193533</v>
@@ -625,7 +625,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5D836DA90&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001AC8954CDD0&gt;</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -638,13 +638,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>14.04668812262235</v>
+        <v>7.949915010405056</v>
       </c>
       <c r="H6" t="n">
         <v>10.57</v>
       </c>
       <c r="I6" t="n">
-        <v>14.35581997552413</v>
+        <v>7.902042125549933</v>
       </c>
       <c r="J6" t="n">
         <v>12.72810469193533</v>
@@ -659,26 +659,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E6D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F0850&gt;</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>10.52</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.5738387476926</v>
+        <v>10.3272015955837</v>
       </c>
       <c r="H7" t="n">
         <v>10.57</v>
       </c>
       <c r="I7" t="n">
-        <v>3.97405513981598</v>
+        <v>7.104666134102715</v>
       </c>
       <c r="J7" t="n">
         <v>12.72810469193533</v>
@@ -693,26 +693,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E57D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F0210&gt;</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>10.52</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>10.58787906626928</v>
+        <v>27.7038352439459</v>
       </c>
       <c r="H8" t="n">
         <v>10.57</v>
       </c>
       <c r="I8" t="n">
-        <v>8.561034937986889</v>
+        <v>9.996359531109476</v>
       </c>
       <c r="J8" t="n">
         <v>12.72810469193533</v>
@@ -727,26 +727,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E54D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F0250&gt;</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>10.52</v>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>8.841824280987646</v>
+        <v>7.587502698366989</v>
       </c>
       <c r="H9" t="n">
         <v>10.57</v>
       </c>
       <c r="I9" t="n">
-        <v>5.482229481218934</v>
+        <v>12.35929549641359</v>
       </c>
       <c r="J9" t="n">
         <v>12.72810469193533</v>
@@ -761,7 +761,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B1B978D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F2F50&gt;</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>6.017962142797566</v>
+        <v>5.935792042889746</v>
       </c>
       <c r="H10" t="n">
         <v>10.57</v>
       </c>
       <c r="I10" t="n">
-        <v>4.588603925729911</v>
+        <v>14.43514171925674</v>
       </c>
       <c r="J10" t="n">
         <v>12.72810469193533</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5D9C736D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F0890&gt;</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -808,13 +808,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15.9517410301713</v>
+        <v>6.598996464202271</v>
       </c>
       <c r="H11" t="n">
         <v>10.57</v>
       </c>
       <c r="I11" t="n">
-        <v>4.73688743675143</v>
+        <v>17.76306871376358</v>
       </c>
       <c r="J11" t="n">
         <v>12.72810469193533</v>
@@ -829,26 +829,26 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E7890&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F3510&gt;</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>10.52</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>5.623890895045973</v>
+        <v>3.952254569288032</v>
       </c>
       <c r="H12" t="n">
         <v>10.57</v>
       </c>
       <c r="I12" t="n">
-        <v>9.853438073376795</v>
+        <v>6.273909109673019</v>
       </c>
       <c r="J12" t="n">
         <v>12.72810469193533</v>
@@ -863,26 +863,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E69D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F2FD0&gt;</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>10.52</v>
       </c>
       <c r="E13" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>13.18368914181566</v>
+        <v>5.840619087392036</v>
       </c>
       <c r="H13" t="n">
         <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>7.254462710300978</v>
+        <v>14.90746491628482</v>
       </c>
       <c r="J13" t="n">
         <v>12.72810469193533</v>
@@ -897,26 +897,26 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5D98C4DD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F2DD0&gt;</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>10.52</v>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.190285227467085</v>
+        <v>10.99957472649321</v>
       </c>
       <c r="H14" t="n">
         <v>10.57</v>
       </c>
       <c r="I14" t="n">
-        <v>4.370455536235069</v>
+        <v>3.602802184812644</v>
       </c>
       <c r="J14" t="n">
         <v>12.72810469193533</v>
@@ -931,7 +931,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E7DD0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23F39D0&gt;</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>9.053249700271094</v>
+        <v>4.227452232064643</v>
       </c>
       <c r="H15" t="n">
-        <v>10.57</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>5.121998983528494</v>
+        <v>11.81784368128225</v>
       </c>
       <c r="J15" t="n">
         <v>12.72810469193533</v>
@@ -965,26 +965,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E6490&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001AC89C62ED0&gt;</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>10.52</v>
       </c>
       <c r="E16" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>8.590688827448366</v>
+        <v>19.37695621467936</v>
       </c>
       <c r="H16" t="n">
         <v>10.57</v>
       </c>
       <c r="I16" t="n">
-        <v>5.147828581440767</v>
+        <v>4.180959101332684</v>
       </c>
       <c r="J16" t="n">
         <v>12.72810469193533</v>
@@ -999,26 +999,26 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E7A10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23C8090&gt;</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>10.52</v>
       </c>
       <c r="E17" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.855931844184644</v>
+        <v>6.144920077987273</v>
       </c>
       <c r="H17" t="n">
         <v>10.57</v>
       </c>
       <c r="I17" t="n">
-        <v>4.299838719297433</v>
+        <v>6.958187679261728</v>
       </c>
       <c r="J17" t="n">
         <v>12.72810469193533</v>
@@ -1033,26 +1033,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E7010&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23C8110&gt;</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>10.52</v>
       </c>
       <c r="E18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F18" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>16.87185550548681</v>
+        <v>10.62959834719835</v>
       </c>
       <c r="H18" t="n">
         <v>10.57</v>
       </c>
       <c r="I18" t="n">
-        <v>15.68529183532612</v>
+        <v>6.542776194970626</v>
       </c>
       <c r="J18" t="n">
         <v>12.72810469193533</v>
@@ -1067,26 +1067,26 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E6890&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23C8190&gt;</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>10.52</v>
       </c>
       <c r="E19" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>6.489574928392765</v>
+        <v>3.860766134059987</v>
       </c>
       <c r="H19" t="n">
         <v>10.57</v>
       </c>
       <c r="I19" t="n">
-        <v>11.44965442746453</v>
+        <v>9.5763071077549</v>
       </c>
       <c r="J19" t="n">
         <v>12.72810469193533</v>
@@ -1101,26 +1101,26 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E5D10&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23CA710&gt;</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>10.52</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.54174415151518</v>
+        <v>4.720527116199082</v>
       </c>
       <c r="H20" t="n">
         <v>10.57</v>
       </c>
       <c r="I20" t="n">
-        <v>5.088468837463197</v>
+        <v>6.143485232536423</v>
       </c>
       <c r="J20" t="n">
         <v>12.72810469193533</v>
@@ -1135,26 +1135,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>&lt;__main__.Entity object at 0x000001D5B28E46D0&gt;</t>
+          <t>&lt;__main__.Entity object at 0x000001ACE23C82D0&gt;</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>10.52</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>4.226497274696391</v>
+        <v>13.14449627092915</v>
       </c>
       <c r="H21" t="n">
         <v>10.57</v>
       </c>
       <c r="I21" t="n">
-        <v>15.8904807227925</v>
+        <v>5.37164174027899</v>
       </c>
       <c r="J21" t="n">
         <v>12.72810469193533</v>
